--- a/IPL/Punjab Kings/Ishan Kishan †.xlsx
+++ b/IPL/Punjab Kings/Ishan Kishan †.xlsx
@@ -445,10 +445,10 @@
         <v>Ishan Kishan †</v>
       </c>
       <c r="C2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -457,16 +457,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>50.00</v>
+        <v>25.00</v>
       </c>
       <c r="H2" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Wankhede</v>
       </c>
       <c r="J2" t="str">
-        <v>April 13 2022</v>
+        <v>April 22 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Ishan Kishan †</v>
       </c>
       <c r="C3" t="str">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D3" t="str">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G3" t="str">
-        <v>50.00</v>
+        <v>182.92</v>
       </c>
       <c r="H3" t="str">
         <v>Mumbai Indians</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Mohali</v>
       </c>
       <c r="J3" t="str">
-        <v>April 13 2022</v>
+        <v>May 03 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Punjab Kings won by 12 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
